--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/15/seed1/result_data_RandomForest.xlsx
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5249</v>
+        <v>13.4877</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.3871</v>
+        <v>12.37330000000001</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.8604</v>
+        <v>11.917</v>
       </c>
     </row>
     <row r="8">
@@ -712,7 +712,7 @@
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>11.8102</v>
+        <v>11.96240000000001</v>
       </c>
     </row>
     <row r="17">
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.29069999999999</v>
+        <v>13.33999999999999</v>
       </c>
     </row>
     <row r="21">
